--- a/data/trans_camb/P54_A_6_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_6_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,17</t>
+          <t>33,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>36,0</t>
+          <t>35,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>41,7</t>
+          <t>41,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>44,9</t>
+          <t>44,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>38,17</t>
+          <t>37,77</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,74</t>
+          <t>40,55</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,08; 40,51</t>
+          <t>27,6; 39,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,31; 41,69</t>
+          <t>30,21; 41,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,19; 46,46</t>
+          <t>36,84; 45,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,68; 49,16</t>
+          <t>40,35; 49,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,01; 42,1</t>
+          <t>33,21; 41,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,12; 44,07</t>
+          <t>36,72; 44,0</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>89,52%</t>
+          <t>88,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>103,57%</t>
+          <t>102,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>99,36%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,65; 115,89</t>
+          <t>65,96; 113,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,0; 121,56</t>
+          <t>71,35; 119,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,47; 117,18</t>
+          <t>78,67; 116,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>87,76; 123,49</t>
+          <t>86,82; 125,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>79,25; 109,22</t>
+          <t>77,7; 107,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>86,23; 115,56</t>
+          <t>84,88; 114,48</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35,71</t>
+          <t>37,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42,64</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,72</t>
+          <t>39,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>43,16</t>
+          <t>42,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,77</t>
+          <t>38,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,97</t>
+          <t>42,73</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,31; 42,37</t>
+          <t>29,63; 42,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,77; 48,37</t>
+          <t>36,13; 48,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,99; 44,72</t>
+          <t>33,71; 44,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>38,12; 48,37</t>
+          <t>37,6; 48,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,85; 42,04</t>
+          <t>33,96; 42,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,09; 46,66</t>
+          <t>38,95; 46,36</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>114,19%</t>
+          <t>113,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,74%</t>
+          <t>87,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>95,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>104,87%</t>
+          <t>104,28%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>69,23; 126,12</t>
+          <t>70,52; 126,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,29; 144,28</t>
+          <t>86,27; 144,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,25; 109,51</t>
+          <t>68,87; 108,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,59; 119,81</t>
+          <t>76,73; 116,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,9; 109,02</t>
+          <t>78,6; 110,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,22; 122,76</t>
+          <t>88,92; 120,74</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>47,72</t>
+          <t>51,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>54,4</t>
+          <t>54,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>41,99</t>
+          <t>39,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>45,03</t>
+          <t>45,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>44,76</t>
+          <t>45,51</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>49,73</t>
+          <t>49,7</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,78; 59,94</t>
+          <t>36,16; 63,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,26; 65,2</t>
+          <t>39,66; 65,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,56; 52,99</t>
+          <t>29,26; 50,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,83; 54,11</t>
+          <t>35,48; 54,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,0; 53,58</t>
+          <t>36,54; 53,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,67; 56,42</t>
+          <t>41,24; 57,01</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>191,22%</t>
+          <t>205,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>217,99%</t>
+          <t>217,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>104,94%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>112,52%</t>
+          <t>112,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>138,13%</t>
+          <t>140,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>153,45%</t>
+          <t>153,35%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>88,37; 336,7</t>
+          <t>97,67; 369,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,87; 363,18</t>
+          <t>103,71; 387,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>63,9; 162,68</t>
+          <t>62,7; 149,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>72,8; 166,63</t>
+          <t>75,95; 163,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>90,72; 196,5</t>
+          <t>94,57; 195,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>104,52; 206,23</t>
+          <t>107,63; 212,55</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>36,31</t>
+          <t>37,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>40,76</t>
+          <t>40,59</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>40,97</t>
+          <t>40,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>44,24</t>
+          <t>44,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>38,73</t>
+          <t>38,81</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>42,61</t>
+          <t>42,42</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,32; 40,69</t>
+          <t>33,2; 41,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>36,73; 44,82</t>
+          <t>36,49; 44,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>37,51; 44,05</t>
+          <t>36,81; 43,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>40,81; 47,38</t>
+          <t>40,86; 47,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,08; 41,85</t>
+          <t>36,08; 41,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,48; 45,66</t>
+          <t>39,89; 44,75</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>99,86%</t>
+          <t>102,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>112,1%</t>
+          <t>111,62%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>101,62%</t>
+          <t>101,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>106,68%</t>
+          <t>106,19%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>80,19; 120,21</t>
+          <t>84,2; 121,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>93,1; 132,69</t>
+          <t>92,45; 129,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>82,42; 107,55</t>
+          <t>80,5; 105,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>88,58; 115,47</t>
+          <t>89,18; 114,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>86,36; 109,54</t>
+          <t>86,72; 108,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>97,47; 121,43</t>
+          <t>95,87; 117,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P54_A_6_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_6_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>33,93</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>35,93</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>41,11</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>44,58</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>37,77</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>40,55</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>34.39019344417631</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>36.0260591861889</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>42.01159812024747</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>44.52818748805086</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>38.43509249945581</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>40.57001912752681</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>27,6; 39,82</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>30,21; 41,33</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>36,84; 45,85</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>40,35; 49,37</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>33,21; 41,4</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>36,72; 44,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>27.29194262340792</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>30.44554633132532</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>37.24443543708328</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>40.178444739534</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>33.83420441938921</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>36.70174266531934</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>88,88%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>94,1%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>94,82%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>102,82%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>92,56%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>99,36%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>40.27358962681458</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>41.76192229553043</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>46.34491786834096</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>49.30917947558415</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>42.08118581556722</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>44.07084776098868</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>65,96; 113,82</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>71,35; 119,41</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>78,67; 116,03</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>86,82; 125,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>77,7; 107,81</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>84,88; 114,48</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.9007835308073031</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.943631818980173</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.9690178349344397</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.027064186173637</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.9418333491239044</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.9941486933962873</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>37,05</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>42,35</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>39,3</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>42,95</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>38,24</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>42,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.6627877067952193</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.7211554426097126</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.8052084531350618</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.868848119181217</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.781633956121093</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.8458295903110175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>29,63; 42,87</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>36,13; 48,54</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>33,71; 44,67</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>37,6; 48,12</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>33,96; 42,34</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>38,95; 46,36</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.162773862752124</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1.19640251475384</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.162426308690964</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.251356741862146</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.103550127610662</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.145536387419239</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>99,22%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>113,42%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>87,8%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>95,97%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>93,33%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>104,28%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>36.79845374416101</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>42.38317343303824</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>39.39770590952913</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>43.15239562963553</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>38.16151254662899</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>42.84460821669375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>70,52; 126,24</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>86,27; 144,72</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>68,87; 108,55</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>76,73; 116,56</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>78,6; 110,16</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>88,92; 120,74</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>29.38651509191196</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>36.08775690101027</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>33.51991767230029</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>37.75155997134665</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>33.72355954502168</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>39.05976862497395</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>51,26</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>54,25</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>39,72</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>45,13</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>45,51</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>49,7</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>42.88332969670773</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>48.51625679983768</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>44.53010213820267</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>48.13364943005075</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>41.95409048524042</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>46.48257643626607</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>36,16; 63,53</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>39,66; 65,3</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>29,26; 50,11</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>35,48; 54,39</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>36,54; 53,6</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>41,24; 57,01</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.9855710267049392</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1.135146276684007</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.8802060721587516</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.9640916846433693</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.9313422309672458</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.045634471450687</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>205,29%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>217,3%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>99,27%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>112,78%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>140,41%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>153,35%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.6918616134466499</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.8605139293562314</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.6874906461602454</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.7708716272285937</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.7730273173271507</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.8910619804710239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>97,67; 369,81</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>103,71; 387,87</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>62,7; 149,54</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>75,95; 163,77</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>94,57; 195,37</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>107,63; 212,55</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.255293863408034</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1.448811107365202</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.080024610222311</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.168506608777291</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.082915351493369</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.209428491745196</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +928,317 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>37,17</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>40,59</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>40,25</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>44,01</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>38,81</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>42,42</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>47.58098564427377</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>53.75419185919351</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>41.67244111263987</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>45.3621703249086</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>44.53202975724856</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>49.55760534710307</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>33,2; 41,44</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>36,49; 44,03</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>36,81; 43,65</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>40,86; 47,37</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>36,08; 41,44</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>39,89; 44,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>32.06622725817019</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>38.50970011149252</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>30.90013857846152</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>35.93313830741218</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>34.7505161348192</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>41.08156864902679</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>102,21%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>111,62%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>92,47%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>101,1%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>97,16%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>106,19%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>59.52947950209408</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>64.98525314635172</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>51.56158191687383</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>54.70080124961494</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>52.93126688220266</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>57.08045947528831</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>84,2; 121,95</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>92,45; 129,06</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>80,5; 105,61</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>89,18; 114,46</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>86,72; 108,28</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>95,87; 117,58</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1.905737077132251</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>2.152989373596009</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>1.041391260926812</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>1.133597324556657</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1.374017483137721</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1.529079553313542</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.8351118948907345</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1.003287473892393</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.6861958061844941</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0.7672197446371352</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.8815666576180525</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>1.067631997002102</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>3.261526272258014</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>3.786511771213166</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.570615636540984</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>1.644511042873652</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1.935340694204585</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>2.121419603833631</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>36.83006284026951</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>40.59195084837334</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>40.96114395939701</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>44.08557499984472</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>38.98871639056785</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>42.45742846379275</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>32.5329270620869</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>36.5172766911147</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>37.66850085993511</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>40.96950996445625</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>36.18628630851089</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>39.92722132379111</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>41.09473287592206</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>44.04121060000573</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>44.206657454367</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>47.33256632752992</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>41.79192850647208</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>44.77418155863002</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1.012877605309944</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.116334722220595</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.9409454357311501</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1.01271880050046</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0.9760961841662585</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>1.062936607039614</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.8393764283546526</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.9250821387227139</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.8201504070116284</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0.8937679837417165</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0.8655557566457106</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>0.9600987599161065</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.205952257070813</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.291309289936775</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.069941556720995</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>1.150825255755074</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>1.08264586170396</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>1.174529387855368</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1221,14 +1246,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
